--- a/madang_data.xlsx
+++ b/madang_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="44">
   <si>
     <t>CUSTID</t>
   </si>
@@ -273,11 +273,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P12"/>
+  <dimension ref="B1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -583,27 +583,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="26.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="6" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="6" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="2:16">
       <c r="B2" s="4" t="s">
@@ -992,6 +992,457 @@
         <v>37</v>
       </c>
       <c r="P12" s="2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>6000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>44013</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>21000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>44015</v>
+      </c>
+      <c r="K18" s="2">
+        <v>3</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="2">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>12000</v>
+      </c>
+      <c r="J19" s="3">
+        <v>44019</v>
+      </c>
+      <c r="K19" s="2">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2">
+        <v>8000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>44015</v>
+      </c>
+      <c r="K20" s="2">
+        <v>5</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="2">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>10</v>
+      </c>
+      <c r="I21" s="2">
+        <v>7000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>44021</v>
+      </c>
+      <c r="K21" s="2">
+        <v>10</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" s="2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3</v>
+      </c>
+      <c r="H22" s="2">
+        <v>6</v>
+      </c>
+      <c r="I22" s="2">
+        <v>6000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>44016</v>
+      </c>
+      <c r="K22" s="2">
+        <v>6</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2">
+        <v>8</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3</v>
+      </c>
+      <c r="H23" s="2">
+        <v>10</v>
+      </c>
+      <c r="I23" s="2">
+        <v>12000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>44020</v>
+      </c>
+      <c r="K23" s="2">
+        <v>10</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23" s="2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="2">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2">
+        <v>3</v>
+      </c>
+      <c r="H24" s="2">
+        <v>8</v>
+      </c>
+      <c r="I24" s="2">
+        <v>13000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>44022</v>
+      </c>
+      <c r="K24" s="2">
+        <v>8</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" s="2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>4</v>
+      </c>
+      <c r="H25" s="2">
+        <v>7</v>
+      </c>
+      <c r="I25" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J25" s="3">
+        <v>44017</v>
+      </c>
+      <c r="K25" s="2">
+        <v>7</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="2">
+        <v>7</v>
+      </c>
+      <c r="G26" s="2">
+        <v>4</v>
+      </c>
+      <c r="H26" s="2">
+        <v>8</v>
+      </c>
+      <c r="I26" s="2">
+        <v>13000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>44019</v>
+      </c>
+      <c r="K26" s="2">
+        <v>8</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" s="2">
         <v>13000</v>
       </c>
     </row>
@@ -1003,5 +1454,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>